--- a/file/data.xlsx
+++ b/file/data.xlsx
@@ -14,13 +14,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13811111111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,8 +102,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,32 +489,49 @@
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>18061880762</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>13811111111</v>
-      </c>
-      <c r="B3">
-        <v>123123</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>288</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>